--- a/Matlab/Seedranksum.xlsx
+++ b/Matlab/Seedranksum.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilet\Desktop\PMCSN_cloud\Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CDAC03-A900-4C67-AE8D-20950C23A805}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94A019F-9BE2-4D4C-9C4F-7486D4C57D37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E3E0976C-F707-4844-B579-039BB093F061}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E3E0976C-F707-4844-B579-039BB093F061}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Seed018765678</t>
   </si>
@@ -63,13 +63,136 @@
   </si>
   <si>
     <t>Seeds</t>
+  </si>
+  <si>
+    <t>Colonna1</t>
+  </si>
+  <si>
+    <t>Algoritmo 1</t>
+  </si>
+  <si>
+    <t>Algoritmo 2</t>
+  </si>
+  <si>
+    <t>E[T]_CLOUDLET</t>
+  </si>
+  <si>
+    <t>E[T1]_CLOUDLET</t>
+  </si>
+  <si>
+    <t>E[T2]_CLOUDLET</t>
+  </si>
+  <si>
+    <t>E[T1]_CLOUD</t>
+  </si>
+  <si>
+    <t>E[T]_CLOUD</t>
+  </si>
+  <si>
+    <t>E[T2]_CLOUD</t>
+  </si>
+  <si>
+    <t>E[T]_SISTEMA</t>
+  </si>
+  <si>
+    <t>E[T1]_SISTEMA</t>
+  </si>
+  <si>
+    <t>E[T2]_SISTEMA</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>pq_task1</t>
+  </si>
+  <si>
+    <t>pq_task2</t>
+  </si>
+  <si>
+    <t>0.47897</t>
+  </si>
+  <si>
+    <t>1.5517</t>
+  </si>
+  <si>
+    <t>1.9297</t>
+  </si>
+  <si>
+    <t>2.0492</t>
+  </si>
+  <si>
+    <t>1.9159</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.1771</t>
+  </si>
+  <si>
+    <t>3.6008</t>
+  </si>
+  <si>
+    <t>3.0737</t>
+  </si>
+  <si>
+    <t>4.1069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.50308</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.138</t>
+  </si>
+  <si>
+    <t>2.1614</t>
+  </si>
+  <si>
+    <t>0.14906</t>
+  </si>
+  <si>
+    <t>2.2794</t>
+  </si>
+  <si>
+    <t>0.10955</t>
+  </si>
+  <si>
+    <t>4.3625</t>
+  </si>
+  <si>
+    <t>3.4174</t>
+  </si>
+  <si>
+    <t>2.2709</t>
+  </si>
+  <si>
+    <t>4.5116</t>
+  </si>
+  <si>
+    <t>Alg_1</t>
+  </si>
+  <si>
+    <t>Alg_2</t>
+  </si>
+  <si>
+    <t>0.026665</t>
+  </si>
+  <si>
+    <t>0.97333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4898</t>
+  </si>
+  <si>
+    <t>0.5102</t>
+  </si>
+  <si>
+    <t>1.1578</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +237,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,7 +260,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -184,11 +321,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -212,11 +435,348 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -241,226 +801,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -740,39 +1080,143 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>89882</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36975434-B17D-40AD-84B6-3CB18C8E9893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="6094" b="-1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5407269" y="446942"/>
+          <a:ext cx="1914286" cy="903290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175596</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Immagine 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C46D74F-0557-4CF1-99C9-C48A2873E795}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5407269" y="1919654"/>
+          <a:ext cx="2000000" cy="914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2326234C-2D68-4FAD-9973-074B56A24CB6}" name="Tabella1" displayName="Tabella1" ref="B2:K11" totalsRowShown="0" headerRowBorderDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2326234C-2D68-4FAD-9973-074B56A24CB6}" name="Tabella1" displayName="Tabella1" ref="B2:K11" totalsRowShown="0" headerRowBorderDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="B2:K11" xr:uid="{8885BACA-5B29-493C-A4F3-6568067FE962}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D27A6F5B-DB73-4073-A6FA-A5F290348BCE}" name="Seeds" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{6E614CAA-A2F4-4D92-8454-15CF806C2827}" name="Seed018765678" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{DFC16DB9-4F93-4BE1-877F-DD1677C0BCF8}" name="Seed123456789" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{4437BF47-B17D-4B77-BB73-5997D97292FA}" name="Seed215487963" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{A85A8417-36B1-4FB4-8FC5-E246B39065DB}" name="Seed230938316" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{C59AF711-8087-4E01-A9AF-B2DE5EBD8D48}" name="Seed349587492" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{8499E1F5-1CD0-4A77-A92F-95B77C0BEA5C}" name="Seed568439202" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{114A65C4-E127-4B54-A429-404E361A23A2}" name="Seed888888888" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{99F4B8BB-5D7C-461A-92CD-26FDFA279BB7}" name="Seed987654321" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{A240D4B5-57C0-42EE-A282-37A2B1C8C132}" name="Seed993727181" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{D27A6F5B-DB73-4073-A6FA-A5F290348BCE}" name="Seeds" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{6E614CAA-A2F4-4D92-8454-15CF806C2827}" name="Seed018765678" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{DFC16DB9-4F93-4BE1-877F-DD1677C0BCF8}" name="Seed123456789" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{4437BF47-B17D-4B77-BB73-5997D97292FA}" name="Seed215487963" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{A85A8417-36B1-4FB4-8FC5-E246B39065DB}" name="Seed230938316" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{C59AF711-8087-4E01-A9AF-B2DE5EBD8D48}" name="Seed349587492" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{8499E1F5-1CD0-4A77-A92F-95B77C0BEA5C}" name="Seed568439202" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{114A65C4-E127-4B54-A429-404E361A23A2}" name="Seed888888888" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{99F4B8BB-5D7C-461A-92CD-26FDFA279BB7}" name="Seed987654321" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{A240D4B5-57C0-42EE-A282-37A2B1C8C132}" name="Seed993727181" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80D60102-4291-4EF5-BC2A-88DB2A8D6969}" name="Tabella2" displayName="Tabella2" ref="B3:K12" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80D60102-4291-4EF5-BC2A-88DB2A8D6969}" name="Tabella2" displayName="Tabella2" ref="B3:K12" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="B3:K12" xr:uid="{73B45490-5090-4FE3-B125-58A64547BB95}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8F9DAE8A-CA6D-41D8-851F-EBFB88A724F1}" name="Seeds" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{5AC4ECFB-2F7E-4374-A350-E8715C771547}" name="Seed018765678" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{E9C4340D-91D6-4F43-809A-BB4F1F079136}" name="Seed123456789" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{0B602269-EB1F-41C8-AB7D-8DA2DD3C7840}" name="Seed215487963" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D9D30B5E-057F-4B7B-9CD2-4B702A62EF71}" name="Seed230938316" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{6992F437-D936-40C7-A1A5-D593261DE5B4}" name="Seed349587492" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{9EA549B4-C86E-4370-A1CA-06F977329EB7}" name="Seed568439202" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{C771080E-101F-463F-A8AA-CD430854161B}" name="Seed888888888" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{43712741-9B7E-4D15-AF32-85CD22502410}" name="Seed987654321" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{F2BE5AD8-E908-40FE-B2D6-51D409C5BD4A}" name="Seed993727181" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8F9DAE8A-CA6D-41D8-851F-EBFB88A724F1}" name="Seeds" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{5AC4ECFB-2F7E-4374-A350-E8715C771547}" name="Seed018765678" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{E9C4340D-91D6-4F43-809A-BB4F1F079136}" name="Seed123456789" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{0B602269-EB1F-41C8-AB7D-8DA2DD3C7840}" name="Seed215487963" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{D9D30B5E-057F-4B7B-9CD2-4B702A62EF71}" name="Seed230938316" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{6992F437-D936-40C7-A1A5-D593261DE5B4}" name="Seed349587492" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{9EA549B4-C86E-4370-A1CA-06F977329EB7}" name="Seed568439202" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{C771080E-101F-463F-A8AA-CD430854161B}" name="Seed888888888" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{43712741-9B7E-4D15-AF32-85CD22502410}" name="Seed987654321" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{F2BE5AD8-E908-40FE-B2D6-51D409C5BD4A}" name="Seed993727181" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76B865D4-FC8E-476C-865B-5DC2C6378B29}" name="Tabella24" displayName="Tabella24" ref="B3:D15" totalsRowShown="0">
+  <autoFilter ref="B3:D15" xr:uid="{F013E5D0-849B-4E87-BD5B-A0E7FA0D0678}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3DDD7027-E228-4158-891F-FB7B2F118E82}" name="Colonna1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{8033CF0D-E0BE-4EAB-B8A6-97B2DB1F10EC}" name="Algoritmo 1" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9C43A7B1-5396-41D8-BC16-6554D8691B88}" name="Algoritmo 2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1078,7 +1522,7 @@
   <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD576D7-AED7-4D71-91F8-735F6E7C1C16}">
   <dimension ref="B3:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,12 +2252,180 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C5C6A0-4906-4BC5-90CA-FC73B555F968}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="31"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Matlab/Seedranksum.xlsx
+++ b/Matlab/Seedranksum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilet\Desktop\PMCSN_cloud\Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94A019F-9BE2-4D4C-9C4F-7486D4C57D37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33513D4A-4EA9-4065-B263-467E53733713}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E3E0976C-F707-4844-B579-039BB093F061}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{E3E0976C-F707-4844-B579-039BB093F061}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>Seed018765678</t>
   </si>
@@ -113,51 +113,15 @@
     <t>0.47897</t>
   </si>
   <si>
-    <t>1.5517</t>
-  </si>
-  <si>
-    <t>1.9297</t>
-  </si>
-  <si>
-    <t>2.0492</t>
-  </si>
-  <si>
-    <t>1.9159</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.1771</t>
-  </si>
-  <si>
     <t>3.6008</t>
   </si>
   <si>
     <t>3.0737</t>
   </si>
   <si>
-    <t>4.1069</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.50308</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.138</t>
-  </si>
-  <si>
-    <t>2.1614</t>
-  </si>
-  <si>
-    <t>0.14906</t>
-  </si>
-  <si>
-    <t>2.2794</t>
-  </si>
-  <si>
-    <t>0.10955</t>
-  </si>
-  <si>
-    <t>4.3625</t>
-  </si>
-  <si>
     <t>3.4174</t>
   </si>
   <si>
@@ -185,14 +149,41 @@
     <t>0.5102</t>
   </si>
   <si>
-    <t>1.1578</t>
+    <t>2.9781</t>
+  </si>
+  <si>
+    <t>2.2222</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7037</t>
+  </si>
+  <si>
+    <t>4.2783</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4.5455</t>
+  </si>
+  <si>
+    <t>4.10699</t>
+  </si>
+  <si>
+    <t>2.2901</t>
+  </si>
+  <si>
+    <t>3.7037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.5309</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,13 +231,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -411,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -475,13 +459,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2255,7 +2234,7 @@
   <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,8 +2245,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="30"/>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2286,10 +2266,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -2297,10 +2277,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -2308,21 +2288,21 @@
         <v>15</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>38</v>
+      <c r="C7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="I7" s="7"/>
     </row>
@@ -2331,10 +2311,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -2342,10 +2322,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -2353,13 +2333,13 @@
         <v>19</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -2367,10 +2347,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -2378,10 +2358,10 @@
         <v>21</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -2392,7 +2372,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -2400,10 +2380,10 @@
         <v>23</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2411,14 +2391,14 @@
         <v>24</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="31"/>
+      <c r="F21" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
